--- a/学习书签收藏.xlsx
+++ b/学习书签收藏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="gerrit" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://www.jianshu.com/p/4dbb4c2118ed</t>
   </si>
@@ -76,6 +76,17 @@
   </si>
   <si>
     <t>https://www.cnblogs.com/himonkey/p/9277658.html</t>
+  </si>
+  <si>
+    <t>7：gerrit配置replication插件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：gerrit插件被禁用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/25517059/gerrit-reload-plugins-to-incorporate-changes</t>
   </si>
 </sst>
 </file>
@@ -472,16 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="66.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="98.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.21875" style="4" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
@@ -535,6 +546,20 @@
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -547,9 +572,10 @@
     <hyperlink ref="B4" r:id="rId5"/>
     <hyperlink ref="B5" r:id="rId6"/>
     <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -557,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
